--- a/base_de_dados/basePatrimonio.xlsx
+++ b/base_de_dados/basePatrimonio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DownloadsHD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Python\appPyQt\base_de_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21548BD-27C8-4571-B9E2-0294717340C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A250B6-24E3-4245-996C-0D0D34167DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC87E165-FDFD-4FA3-986E-DD947E8A1D5E}"/>
+    <workbookView xWindow="3120" yWindow="165" windowWidth="21960" windowHeight="15435" xr2:uid="{DC87E165-FDFD-4FA3-986E-DD947E8A1D5E}"/>
   </bookViews>
   <sheets>
     <sheet name="patrimonio" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>Ativo</t>
   </si>
@@ -45,9 +37,6 @@
     <t>Intel Core I7-7500</t>
   </si>
   <si>
-    <t>Rodrigo Gandra</t>
-  </si>
-  <si>
     <t>Intel Core I3-7020</t>
   </si>
   <si>
@@ -57,45 +46,27 @@
     <t>AT</t>
   </si>
   <si>
-    <t>Daniel</t>
-  </si>
-  <si>
     <t>Intel Celeron N4000</t>
   </si>
   <si>
     <t>Intel Core I5-8265</t>
   </si>
   <si>
-    <t>Rodrigo Cabral</t>
-  </si>
-  <si>
     <t>12GB</t>
   </si>
   <si>
-    <t>Luísa</t>
-  </si>
-  <si>
     <t>Aux. De projetos</t>
   </si>
   <si>
     <t>Analista de projetos civil</t>
   </si>
   <si>
-    <t>victor oliveira</t>
-  </si>
-  <si>
     <t>Analista civil</t>
   </si>
   <si>
-    <t>Helder Sousa</t>
-  </si>
-  <si>
     <t>Intel Core  I7-7500</t>
   </si>
   <si>
-    <t>Lucas Mateus</t>
-  </si>
-  <si>
     <t>processador</t>
   </si>
   <si>
@@ -121,6 +92,33 @@
   </si>
   <si>
     <t>Inativo</t>
+  </si>
+  <si>
+    <t>Rodrigo de Souza Cabral</t>
+  </si>
+  <si>
+    <t>Rodrigo Mascarenhas Gandra</t>
+  </si>
+  <si>
+    <t>Daniel Barbosa Eskenazi</t>
+  </si>
+  <si>
+    <t>Lucas Mateus do Nascimento</t>
+  </si>
+  <si>
+    <t>Victor Hugo Louback de Oliveira</t>
+  </si>
+  <si>
+    <t>Helder Sousa da Silva</t>
+  </si>
+  <si>
+    <t>Luísa Siqueira</t>
+  </si>
+  <si>
+    <t>Luiz Fellipe</t>
+  </si>
+  <si>
+    <t>Allan Silva</t>
   </si>
 </sst>
 </file>
@@ -664,12 +662,13 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -680,25 +679,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -706,10 +705,10 @@
         <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -718,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -729,16 +728,19 @@
         <v>159</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -746,16 +748,19 @@
         <v>162</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -763,10 +768,10 @@
         <v>163</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -775,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -786,22 +791,22 @@
         <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -809,7 +814,7 @@
         <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -821,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -829,10 +834,10 @@
         <v>169</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>1</v>
@@ -841,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -852,22 +857,22 @@
         <v>171</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -875,22 +880,22 @@
         <v>172</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -916,21 +921,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E1D5EC17D66BF54EAC927CD740F8B790" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="0d8c36ca86ca5e00ef8e85d9b83ca5d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bbd8d96b-6a04-4fa6-b44e-6220e14c2e1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff6e5c84d9d31271e9dd115995720731" ns3:_="">
     <xsd:import namespace="bbd8d96b-6a04-4fa6-b44e-6220e14c2e1d"/>
@@ -1062,10 +1052,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D03FE028-AB1E-4D86-B798-171BDE4FD659}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAE9F20-01A7-41F5-82F8-F75B201A1730}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bbd8d96b-6a04-4fa6-b44e-6220e14c2e1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1087,19 +1102,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAE9F20-01A7-41F5-82F8-F75B201A1730}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D03FE028-AB1E-4D86-B798-171BDE4FD659}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bbd8d96b-6a04-4fa6-b44e-6220e14c2e1d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/base_de_dados/basePatrimonio.xlsx
+++ b/base_de_dados/basePatrimonio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Python\appPyQt\base_de_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A250B6-24E3-4245-996C-0D0D34167DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73870C34-12E9-4BAB-9BD8-3CD23868E552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="165" windowWidth="21960" windowHeight="15435" xr2:uid="{DC87E165-FDFD-4FA3-986E-DD947E8A1D5E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DC87E165-FDFD-4FA3-986E-DD947E8A1D5E}"/>
   </bookViews>
   <sheets>
     <sheet name="patrimonio" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Ativo</t>
   </si>
@@ -119,6 +119,30 @@
   </si>
   <si>
     <t>Allan Silva</t>
+  </si>
+  <si>
+    <t>UltraBook</t>
+  </si>
+  <si>
+    <t>MacBook Pro</t>
+  </si>
+  <si>
+    <t>Odyssey</t>
+  </si>
+  <si>
+    <t>Acer Aspire 5</t>
+  </si>
+  <si>
+    <t>Samsumg Ultra</t>
+  </si>
+  <si>
+    <t>PC Top</t>
+  </si>
+  <si>
+    <t>Razer Master</t>
+  </si>
+  <si>
+    <t>Avenger III</t>
   </si>
 </sst>
 </file>
@@ -662,7 +686,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -728,7 +752,7 @@
         <v>159</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -748,7 +772,7 @@
         <v>162</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -768,7 +792,7 @@
         <v>163</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -791,7 +815,7 @@
         <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -814,7 +838,7 @@
         <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -834,7 +858,7 @@
         <v>169</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -857,7 +881,7 @@
         <v>171</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -880,7 +904,7 @@
         <v>172</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -921,6 +945,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E1D5EC17D66BF54EAC927CD740F8B790" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="0d8c36ca86ca5e00ef8e85d9b83ca5d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bbd8d96b-6a04-4fa6-b44e-6220e14c2e1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff6e5c84d9d31271e9dd115995720731" ns3:_="">
     <xsd:import namespace="bbd8d96b-6a04-4fa6-b44e-6220e14c2e1d"/>
@@ -1052,12 +1082,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1068,6 +1092,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFDB3526-32D8-4D1C-B40D-0BC3E9FD35C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="bbd8d96b-6a04-4fa6-b44e-6220e14c2e1d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAAE9F20-01A7-41F5-82F8-F75B201A1730}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1085,22 +1125,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFDB3526-32D8-4D1C-B40D-0BC3E9FD35C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="bbd8d96b-6a04-4fa6-b44e-6220e14c2e1d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D03FE028-AB1E-4D86-B798-171BDE4FD659}">
   <ds:schemaRefs>
